--- a/ResultadosVND.xlsx
+++ b/ResultadosVND.xlsx
@@ -10,6 +10,23 @@
     <sheet name="I1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="I2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="I3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="I4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="I5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="I6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="I7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="I8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="I9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="I10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="I11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="I12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="I13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="I14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="I15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="I16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="I17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="I18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="I19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="I20" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,11 +452,3795 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44</v>
+      </c>
+      <c r="N3" t="n">
+        <v>45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>78</v>
+      </c>
+      <c r="T3" t="n">
+        <v>82</v>
+      </c>
+      <c r="U3" t="n">
+        <v>85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>90</v>
+      </c>
+      <c r="X3" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11891</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12437</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13280</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-6962</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-14773</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30488</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25841</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BQ5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>47</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49</v>
+      </c>
+      <c r="O3" t="n">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60</v>
+      </c>
+      <c r="R3" t="n">
+        <v>63</v>
+      </c>
+      <c r="S3" t="n">
+        <v>67</v>
+      </c>
+      <c r="T3" t="n">
+        <v>71</v>
+      </c>
+      <c r="U3" t="n">
+        <v>73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>74</v>
+      </c>
+      <c r="W3" t="n">
+        <v>85</v>
+      </c>
+      <c r="X3" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>124</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>152</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>173</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>176</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>186</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>187</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>192</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>202</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>217</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>223</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>231</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32241</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31622</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29368</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30152</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31425</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30509</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29669</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29932</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32187</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-17465</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-36826</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-34892</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-32107</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-32931</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>77673</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50984</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" t="n">
+        <v>48</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>61</v>
+      </c>
+      <c r="R3" t="n">
+        <v>67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>71</v>
+      </c>
+      <c r="T3" t="n">
+        <v>73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>92</v>
+      </c>
+      <c r="W3" t="n">
+        <v>95</v>
+      </c>
+      <c r="X3" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>114</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>152</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>159</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>164</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>176</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>181</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>184</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>192</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>194</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>196</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>202</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>206</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>210</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>213</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>215</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>224</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>230</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>255</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>271</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>286</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>293</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>304</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>311</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>312</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>315</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>318</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>321</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>323</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>325</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>333</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>335</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>337</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>349</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>353</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>356</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>359</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>364</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>366</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>367</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>371</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>379</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>385</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>387</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>388</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>392</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>397</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>399</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>400</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>404</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>406</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>410</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>415</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>418</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>432</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>433</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>438</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>440</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>450</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>464</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>466</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>472</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>479</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>483</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>488</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>492</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60256</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61992</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59423</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61355</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60891</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60126</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60264</v>
+      </c>
+      <c r="I4" t="n">
+        <v>64342</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-29235</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-67003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-65399</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-65367</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-62981</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>151533</v>
+      </c>
+      <c r="B5" t="n">
+        <v>96165</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:ED5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48</v>
+      </c>
+      <c r="P3" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60</v>
+      </c>
+      <c r="S3" t="n">
+        <v>61</v>
+      </c>
+      <c r="T3" t="n">
+        <v>63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>71</v>
+      </c>
+      <c r="V3" t="n">
+        <v>74</v>
+      </c>
+      <c r="W3" t="n">
+        <v>94</v>
+      </c>
+      <c r="X3" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>152</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>159</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>185</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>186</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>187</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>192</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>194</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>196</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>200</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>202</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>203</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>214</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>215</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>224</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>230</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>247</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>248</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>257</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>264</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>265</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>282</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>286</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>292</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>304</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>306</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>308</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>311</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>315</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>318</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>321</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>323</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>335</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>341</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>343</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>344</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>347</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>348</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>353</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>354</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>356</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>361</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>364</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>367</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>379</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>382</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>384</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>385</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>387</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>388</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>392</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>393</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>399</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>400</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>401</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>404</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>405</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>410</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>433</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>435</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>437</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>439</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>443</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>451</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>453</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>456</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>457</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>464</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>472</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>476</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>488</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62120</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60263</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61647</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64931</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65234</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60706</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63303</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60881</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59170</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-31806</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-70006</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-62889</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-69922</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-63575</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>159584</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106144</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>41</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50</v>
+      </c>
+      <c r="P3" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12104</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11315</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9522</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10051</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15050</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9608</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12063</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8946</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11451</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12561</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11103</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10576</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12514</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10495</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11879</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10835</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10439</v>
+      </c>
+      <c r="R4" t="n">
+        <v>13019</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10631</v>
+      </c>
+      <c r="T4" t="n">
+        <v>11520</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10627</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11232</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11502</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12231</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10498</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11650</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12045</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11837</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11719</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11806</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-6745</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-13217</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-9215</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-11912</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-12609</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-12990</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-11141</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-14685</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-11471</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-11974</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-9424</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-13359</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-13869</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-11759</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-11342</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22383</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11872</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" t="n">
+        <v>52</v>
+      </c>
+      <c r="O3" t="n">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>76</v>
+      </c>
+      <c r="S3" t="n">
+        <v>81</v>
+      </c>
+      <c r="T3" t="n">
+        <v>84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>88</v>
+      </c>
+      <c r="V3" t="n">
+        <v>91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11766</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11482</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12633</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9951</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10259</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11720</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10145</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11588</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12578</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10690</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10408</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11943</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11536</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11771</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>11186</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11634</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10984</v>
+      </c>
+      <c r="T4" t="n">
+        <v>11637</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10859</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12444</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8881</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10289</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11859</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11739</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11849</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7490</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10413</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11147</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-5513</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-12774</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-13031</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-9416</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-13418</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-12584</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-11968</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-14705</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-8963</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-10149</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-11853</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-12714</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-14052</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-7259</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-10202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23589</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12274</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BH5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50</v>
+      </c>
+      <c r="P3" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83</v>
+      </c>
+      <c r="U3" t="n">
+        <v>84</v>
+      </c>
+      <c r="V3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>91</v>
+      </c>
+      <c r="X3" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>131</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>156</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>171</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>183</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>195</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>207</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>211</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>214</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>243</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31765</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30008</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30064</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29088</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28615</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30716</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26033</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28871</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31048</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32104</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26820</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27244</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27171</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>28207</v>
+      </c>
+      <c r="R4" t="n">
+        <v>28181</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29134</v>
+      </c>
+      <c r="T4" t="n">
+        <v>31675</v>
+      </c>
+      <c r="U4" t="n">
+        <v>28901</v>
+      </c>
+      <c r="V4" t="n">
+        <v>32392</v>
+      </c>
+      <c r="W4" t="n">
+        <v>26556</v>
+      </c>
+      <c r="X4" t="n">
+        <v>31047</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>31254</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29012</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30674</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30489</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>27536</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>29305</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-13019</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-31396</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-31973</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-25523</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-31485</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-31541</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-32053</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-36624</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-30615</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-30727</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-29486</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-32484</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-33150</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-24456</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-29372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>69805</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30819</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BH5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46</v>
+      </c>
+      <c r="L3" t="n">
+        <v>47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" t="n">
+        <v>62</v>
+      </c>
+      <c r="O3" t="n">
+        <v>67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>71</v>
+      </c>
+      <c r="R3" t="n">
+        <v>74</v>
+      </c>
+      <c r="S3" t="n">
+        <v>83</v>
+      </c>
+      <c r="T3" t="n">
+        <v>84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>88</v>
+      </c>
+      <c r="V3" t="n">
+        <v>91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X3" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>109</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>153</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>154</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>171</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>195</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>196</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>211</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>212</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>218</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>238</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>244</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31346</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26041</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23603</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28753</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28831</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29528</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29758</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30497</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31772</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33312</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32118</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30854</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30085</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30236</v>
+      </c>
+      <c r="P4" t="n">
+        <v>30140</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31533</v>
+      </c>
+      <c r="R4" t="n">
+        <v>32882</v>
+      </c>
+      <c r="S4" t="n">
+        <v>26634</v>
+      </c>
+      <c r="T4" t="n">
+        <v>24192</v>
+      </c>
+      <c r="U4" t="n">
+        <v>32094</v>
+      </c>
+      <c r="V4" t="n">
+        <v>30955</v>
+      </c>
+      <c r="W4" t="n">
+        <v>27857</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32162</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>30828</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30235</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30634</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26914</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>29372</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>27353</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-14079</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-31802</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-31602</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-31681</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-32436</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-34151</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-31944</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-35511</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-30985</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-30475</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-29464</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-33785</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-34414</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-27470</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-30378</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>68121</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33037</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DT5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>64</v>
+      </c>
+      <c r="R3" t="n">
+        <v>66</v>
+      </c>
+      <c r="S3" t="n">
+        <v>68</v>
+      </c>
+      <c r="T3" t="n">
+        <v>73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>86</v>
+      </c>
+      <c r="W3" t="n">
+        <v>88</v>
+      </c>
+      <c r="X3" t="n">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>104</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>154</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>156</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>191</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>195</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>205</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>209</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>210</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>238</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>246</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>248</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>254</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>264</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>269</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>274</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>280</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>282</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>288</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>308</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>311</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>314</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>315</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>323</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>328</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>329</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>335</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>342</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>347</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>355</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>368</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>371</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>374</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>383</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>386</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>387</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>391</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>392</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>393</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>394</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>396</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>398</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>409</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>410</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>415</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>417</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>419</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>426</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>428</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>435</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>438</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>439</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>440</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>465</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>466</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>471</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>479</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>482</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>483</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61768</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60982</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59480</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54964</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58676</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59153</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62938</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60965</v>
+      </c>
+      <c r="J4" t="n">
+        <v>55726</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61003</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60703</v>
+      </c>
+      <c r="M4" t="n">
+        <v>61990</v>
+      </c>
+      <c r="N4" t="n">
+        <v>61893</v>
+      </c>
+      <c r="O4" t="n">
+        <v>59154</v>
+      </c>
+      <c r="P4" t="n">
+        <v>59877</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>62642</v>
+      </c>
+      <c r="R4" t="n">
+        <v>60220</v>
+      </c>
+      <c r="S4" t="n">
+        <v>58156</v>
+      </c>
+      <c r="T4" t="n">
+        <v>53863</v>
+      </c>
+      <c r="U4" t="n">
+        <v>62426</v>
+      </c>
+      <c r="V4" t="n">
+        <v>60203</v>
+      </c>
+      <c r="W4" t="n">
+        <v>59069</v>
+      </c>
+      <c r="X4" t="n">
+        <v>62381</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>62550</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60489</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>62182</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>58748</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>60037</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>53491</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-33925</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-66447</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-59415</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-58754</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-69245</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-62047</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-61799</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-70383</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-61612</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-62188</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-65307</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-64009</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-65498</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-61048</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-66495</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>139694</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65647</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DU5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>46</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50</v>
+      </c>
+      <c r="P3" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>74</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83</v>
+      </c>
+      <c r="U3" t="n">
+        <v>91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>96</v>
+      </c>
+      <c r="X3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>171</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>191</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>205</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>209</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>214</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>238</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>246</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>247</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>258</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>264</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>269</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>271</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>287</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>299</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>308</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>311</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>315</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>319</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>323</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>325</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>327</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>328</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>330</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>335</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>336</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>337</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>341</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>347</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>355</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>360</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>362</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>363</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>364</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>368</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>369</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>374</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>383</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>385</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>386</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>387</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>391</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>393</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>396</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>398</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>403</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>409</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>413</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>426</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>428</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>432</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>433</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>440</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>445</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>446</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>448</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>454</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>475</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>476</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>477</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>479</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>482</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>483</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>487</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61485</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60676</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55665</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60759</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59513</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56347</v>
+      </c>
+      <c r="G4" t="n">
+        <v>57611</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62786</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60369</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62362</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61752</v>
+      </c>
+      <c r="L4" t="n">
+        <v>62060</v>
+      </c>
+      <c r="M4" t="n">
+        <v>62405</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60427</v>
+      </c>
+      <c r="O4" t="n">
+        <v>62500</v>
+      </c>
+      <c r="P4" t="n">
+        <v>58619</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>59250</v>
+      </c>
+      <c r="R4" t="n">
+        <v>59246</v>
+      </c>
+      <c r="S4" t="n">
+        <v>58974</v>
+      </c>
+      <c r="T4" t="n">
+        <v>61052</v>
+      </c>
+      <c r="U4" t="n">
+        <v>59179</v>
+      </c>
+      <c r="V4" t="n">
+        <v>59942</v>
+      </c>
+      <c r="W4" t="n">
+        <v>59158</v>
+      </c>
+      <c r="X4" t="n">
+        <v>61184</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>63710</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60611</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>63706</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>62571</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>60364</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>59616</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-26660</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-63100</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-64574</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-59200</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-68720</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-64684</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-62617</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-69134</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-64716</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-60317</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-65209</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-59544</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-69191</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-60799</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-66326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>139201</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68195</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BZ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -449,113 +4250,556 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
         <v>11</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
         <v>13</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="n">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="n">
         <v>19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" t="n">
+        <v>21</v>
+      </c>
+      <c r="T3" t="n">
         <v>22</v>
       </c>
-      <c r="L3" t="n">
+      <c r="U3" t="n">
+        <v>23</v>
+      </c>
+      <c r="V3" t="n">
         <v>24</v>
       </c>
-      <c r="M3" t="n">
+      <c r="W3" t="n">
+        <v>25</v>
+      </c>
+      <c r="X3" t="n">
         <v>26</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Y3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="n">
         <v>28</v>
       </c>
-      <c r="O3" t="n">
-        <v>39</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="AA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN3" t="n">
         <v>44</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AO3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS3" t="n">
         <v>49</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AT3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>53</v>
+      </c>
+      <c r="AX3" t="n">
         <v>54</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AY3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>57</v>
       </c>
-      <c r="T3" t="n">
+      <c r="BA3" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>62</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>63</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>64</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI3" t="n">
         <v>67</v>
       </c>
-      <c r="U3" t="n">
+      <c r="BJ3" t="n">
+        <v>68</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>69</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>70</v>
+      </c>
+      <c r="BM3" t="n">
         <v>71</v>
       </c>
-      <c r="V3" t="n">
+      <c r="BN3" t="n">
+        <v>72</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>74</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>76</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>77</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>78</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>79</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BW3" t="n">
         <v>82</v>
       </c>
-      <c r="W3" t="n">
+      <c r="BX3" t="n">
+        <v>83</v>
+      </c>
+      <c r="BY3" t="n">
         <v>88</v>
       </c>
-      <c r="X3" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>93</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>100</v>
+      <c r="BZ3" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11820</v>
+        <v>-10</v>
       </c>
       <c r="B4" t="n">
-        <v>13724</v>
+        <v>-64</v>
       </c>
       <c r="C4" t="n">
-        <v>11344</v>
+        <v>-4</v>
       </c>
       <c r="D4" t="n">
-        <v>11887</v>
+        <v>-13</v>
       </c>
       <c r="E4" t="n">
-        <v>13373</v>
+        <v>-220</v>
       </c>
       <c r="F4" t="n">
-        <v>-9111</v>
+        <v>-120</v>
       </c>
       <c r="G4" t="n">
-        <v>-16377</v>
+        <v>-6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30691</v>
+        <v>357</v>
       </c>
       <c r="B5" t="n">
-        <v>25855</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
-        <v>11613</v>
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18</v>
+      </c>
+      <c r="R8" t="n">
+        <v>19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="n">
+        <v>21</v>
+      </c>
+      <c r="U8" t="n">
+        <v>22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>23</v>
+      </c>
+      <c r="W8" t="n">
+        <v>24</v>
+      </c>
+      <c r="X8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>47</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>49</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>53</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>54</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>57</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>59</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>62</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>63</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>64</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>68</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>69</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>71</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>72</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>73</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>74</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>75</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>76</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>77</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>78</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>79</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>80</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>82</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>83</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>88</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-64</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-220</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20987</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>355</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6407</v>
       </c>
     </row>
   </sheetData>
@@ -597,6 +4841,166 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>63</v>
+      </c>
+      <c r="T3" t="n">
+        <v>71</v>
+      </c>
+      <c r="U3" t="n">
+        <v>75</v>
+      </c>
+      <c r="V3" t="n">
+        <v>77</v>
+      </c>
+      <c r="W3" t="n">
+        <v>78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12788</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13133</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11692</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13822</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-8056</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-14615</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28481</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25914</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:GB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
@@ -606,116 +5010,710 @@
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
         <v>27</v>
       </c>
-      <c r="J3" t="n">
-        <v>28</v>
-      </c>
       <c r="K3" t="n">
+        <v>29</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n">
+        <v>31</v>
+      </c>
+      <c r="N3" t="n">
         <v>35</v>
       </c>
-      <c r="L3" t="n">
-        <v>39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42</v>
-      </c>
-      <c r="N3" t="n">
-        <v>43</v>
-      </c>
       <c r="O3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="n">
         <v>46</v>
       </c>
-      <c r="Q3" t="n">
-        <v>54</v>
-      </c>
       <c r="R3" t="n">
+        <v>47</v>
+      </c>
+      <c r="S3" t="n">
+        <v>48</v>
+      </c>
+      <c r="T3" t="n">
+        <v>50</v>
+      </c>
+      <c r="U3" t="n">
+        <v>51</v>
+      </c>
+      <c r="V3" t="n">
+        <v>52</v>
+      </c>
+      <c r="W3" t="n">
+        <v>53</v>
+      </c>
+      <c r="X3" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="n">
         <v>57</v>
       </c>
-      <c r="S3" t="n">
-        <v>58</v>
-      </c>
-      <c r="T3" t="n">
-        <v>62</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="Z3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>68</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH3" t="n">
         <v>74</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AI3" t="n">
         <v>75</v>
       </c>
-      <c r="W3" t="n">
-        <v>77</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AJ3" t="n">
+        <v>78</v>
+      </c>
+      <c r="AK3" t="n">
         <v>79</v>
       </c>
-      <c r="Y3" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>89</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AN3" t="n">
         <v>91</v>
       </c>
-      <c r="AB3" t="n">
-        <v>92</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AO3" t="n">
         <v>98</v>
       </c>
-      <c r="AD3" t="n">
-        <v>100</v>
+      <c r="AP3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>105</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>107</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>118</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12816</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>12978</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11986</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>12020</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>13457</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-9920</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-16693</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26758</v>
+        <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>24256</v>
+        <v>343</v>
       </c>
       <c r="C5" t="n">
-        <v>11433</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -760,257 +5758,2027 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>54</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57</v>
+      </c>
+      <c r="O3" t="n">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>71</v>
+      </c>
+      <c r="R3" t="n">
+        <v>72</v>
+      </c>
+      <c r="S3" t="n">
+        <v>76</v>
+      </c>
+      <c r="T3" t="n">
+        <v>79</v>
+      </c>
+      <c r="U3" t="n">
+        <v>80</v>
+      </c>
+      <c r="V3" t="n">
+        <v>82</v>
+      </c>
+      <c r="W3" t="n">
+        <v>85</v>
+      </c>
+      <c r="X3" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>112</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>118</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>166</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>179</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>182</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>183</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>188</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>189</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>191</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>194</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>197</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>202</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>203</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>207</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>209</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>210</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>218</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>236</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>238</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>244</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29526</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29773</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31140</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-32302</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-38214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>77131</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68808</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>54</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55</v>
+      </c>
+      <c r="O3" t="n">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>77</v>
+      </c>
+      <c r="T3" t="n">
+        <v>79</v>
+      </c>
+      <c r="U3" t="n">
+        <v>82</v>
+      </c>
+      <c r="V3" t="n">
+        <v>89</v>
+      </c>
+      <c r="W3" t="n">
+        <v>91</v>
+      </c>
+      <c r="X3" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>102</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>112</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>118</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>133</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>138</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>146</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>153</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>155</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>156</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>168</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>184</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>186</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>189</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>195</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>205</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>206</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>217</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>224</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>229</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>234</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>237</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>243</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>247</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29319</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32063</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30141</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31323</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31436</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-32189</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-32126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58440</v>
+      </c>
+      <c r="B5" t="n">
+        <v>55977</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DU5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>5</v>
       </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
       <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48</v>
+      </c>
+      <c r="P3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>58</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60</v>
+      </c>
+      <c r="S3" t="n">
+        <v>61</v>
+      </c>
+      <c r="T3" t="n">
+        <v>73</v>
+      </c>
+      <c r="U3" t="n">
+        <v>76</v>
+      </c>
+      <c r="V3" t="n">
+        <v>79</v>
+      </c>
+      <c r="W3" t="n">
+        <v>80</v>
+      </c>
+      <c r="X3" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>111</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>124</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>131</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>138</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>143</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>149</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>152</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>155</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>164</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>176</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>177</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>179</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>183</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>187</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>189</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>192</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>195</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>208</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>210</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>217</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>223</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>227</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>230</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>231</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>246</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>262</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>263</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>270</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>273</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>274</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>277</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>283</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>293</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>298</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>301</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>302</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>303</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>306</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>308</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>309</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>317</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>320</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>324</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>327</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>330</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>334</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>342</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>345</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>347</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>353</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>357</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>360</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>364</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>366</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>371</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>375</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>376</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>382</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>387</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>389</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>391</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>394</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>396</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>398</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>408</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>418</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>426</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>428</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>433</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>443</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>445</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>446</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>455</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>456</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>461</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>483</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>497</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61016</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61779</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58724</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62057</v>
+      </c>
+      <c r="E4" t="n">
+        <v>61872</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-62723</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-63459</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>121599</v>
+      </c>
+      <c r="B5" t="n">
+        <v>107228</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DV5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
         <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>49</v>
+      </c>
+      <c r="R3" t="n">
+        <v>56</v>
+      </c>
+      <c r="S3" t="n">
+        <v>58</v>
+      </c>
+      <c r="T3" t="n">
+        <v>59</v>
+      </c>
+      <c r="U3" t="n">
+        <v>63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W3" t="n">
+        <v>81</v>
+      </c>
+      <c r="X3" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>131</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>154</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>168</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>178</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>179</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>185</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>193</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>196</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>197</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>199</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>203</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>204</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>206</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>207</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>211</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>212</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>216</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>219</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>223</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>226</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>236</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>245</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>249</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>254</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>261</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>274</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>277</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>279</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>293</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>298</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>304</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>311</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>315</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>317</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>321</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>331</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>333</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>335</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>338</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>342</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>347</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>348</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>349</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>352</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>358</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>363</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>374</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>379</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>381</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>388</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>391</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>392</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>393</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>395</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>400</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>406</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>410</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>412</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>414</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>415</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>422</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>425</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>429</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>430</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>434</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>439</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>447</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>448</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>449</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>452</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>458</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>460</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>462</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>468</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>472</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>479</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>484</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>485</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>487</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>489</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61689</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61986</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58909</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60699</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64008</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-62702</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-63388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>127702</v>
+      </c>
+      <c r="B5" t="n">
+        <v>119040</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n">
+        <v>38</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>58</v>
+      </c>
+      <c r="R3" t="n">
+        <v>71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>95</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>13581</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11902</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13680</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12139</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11989</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10595</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12034</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10455</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10830</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-7065</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-13848</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-13167</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-12005</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-13358</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28254</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17188</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
         <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>27</v>
       </c>
       <c r="K3" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N3" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O3" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T3" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U3" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="V3" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W3" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="X3" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Y3" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>86</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>88</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>89</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>91</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>96</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>97</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>98</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>102</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>109</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>112</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>116</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>117</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>118</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>137</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>138</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>141</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>147</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>155</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>162</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>166</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>168</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>170</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>176</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>177</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>181</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>183</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>188</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>189</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>193</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>194</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>197</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>202</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>203</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>210</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>218</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>219</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>222</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>225</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>231</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>236</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>238</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>242</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>244</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29484</v>
+        <v>11598</v>
       </c>
       <c r="B4" t="n">
-        <v>29878</v>
+        <v>11912</v>
       </c>
       <c r="C4" t="n">
-        <v>31798</v>
+        <v>11102</v>
       </c>
       <c r="D4" t="n">
-        <v>31171</v>
+        <v>13006</v>
       </c>
       <c r="E4" t="n">
-        <v>29959</v>
+        <v>11859</v>
       </c>
       <c r="F4" t="n">
-        <v>-32162</v>
+        <v>12451</v>
       </c>
       <c r="G4" t="n">
-        <v>-41816</v>
+        <v>11771</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10437</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12407</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10542</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-5904</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-13481</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-13394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-12305</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-12510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76213</v>
+        <v>27489</v>
       </c>
       <c r="B5" t="n">
-        <v>68062</v>
+        <v>18376</v>
       </c>
       <c r="C5" t="n">
-        <v>21560</v>
+        <v>13688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BI5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RNC = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48</v>
+      </c>
+      <c r="M3" t="n">
+        <v>49</v>
+      </c>
+      <c r="N3" t="n">
+        <v>58</v>
+      </c>
+      <c r="O3" t="n">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>95</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" t="n">
+        <v>108</v>
+      </c>
+      <c r="T3" t="n">
+        <v>109</v>
+      </c>
+      <c r="U3" t="n">
+        <v>114</v>
+      </c>
+      <c r="V3" t="n">
+        <v>115</v>
+      </c>
+      <c r="W3" t="n">
+        <v>116</v>
+      </c>
+      <c r="X3" t="n">
+        <v>119</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>126</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>144</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>158</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>159</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>161</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>162</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>167</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>173</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>184</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>187</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>192</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>194</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>196</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>202</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>206</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>212</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>213</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>215</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>220</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>222</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>225</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>230</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>239</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>240</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>241</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>242</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>243</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31349</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29038</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29988</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31108</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30496</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30703</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29523</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29889</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32126</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-12529</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-32191</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-31489</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-29577</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-30517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>68388</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47996</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35687</v>
       </c>
     </row>
   </sheetData>
